--- a/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="4590" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
-    <sheet name="现有需求功能整合" sheetId="6" r:id="rId2"/>
+    <sheet name="现有需求功能整合（前台）" sheetId="6" r:id="rId2"/>
     <sheet name="业务流程图" sheetId="5" r:id="rId3"/>
     <sheet name="协议规则" sheetId="4" r:id="rId4"/>
     <sheet name="开发" sheetId="3" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="239">
   <si>
     <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,17 +86,10 @@
     <t>标签分类规则：</t>
   </si>
   <si>
-    <t>userName： "用户_" + accountMobile</t>
-  </si>
-  <si>
     <t>header: dataType 数据类型,deviceId设备ID，code成功码，message信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    dataType：功能 + "_" + 类别 + "_" + 动作，示例：1_0_0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    类别：0.无 1.系统 2.日程 3.参与人 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +106,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>queueName：userId + "." + deviceId;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    功能：1.讯飞应答语义 2.新消息 3.数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型，功能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,33 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>短信验证登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成用户token</t>
-  </si>
-  <si>
-    <t>修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旧密码修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据切换标签，改变日期标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未读消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.解析失败应答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在APP使用期间唤醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,74 +230,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>菜单栏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定/更换手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号与安全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐私模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户社会关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>状态反馈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>菜单栏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绑定/更换手机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号与安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐私模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户社会关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户基本信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户资料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询日程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -348,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.安排给自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新建日程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,98 +310,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.解析成功应答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音输入/
-手动输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当日未处理消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当日发布日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询当日接收日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接收日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳转语音界面展示当日全部日程列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双击日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询当日日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单机日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.当天标识
-2.选中标识
-3.当天有日程标识（1-5件日程标识，5件以上日程标识）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左滑上月，右滑下月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>滑动选择月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日历展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户与安全内验证旧密码成功后更换新密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信验证修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成用户token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.生成游客登陆token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -466,34 +325,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.使用sqlite本地生成用户数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客登陆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.首次打开APP可选择直接注册登陆和游客登陆
-2.注册时使用短消息验证，验证码时效性一分钟
-3.使用游客身份登陆后注册时，使用游客数据
-4.注册成功后直接登陆，并同步本地和服务器数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.短消息验证码注册
-2.注册时若有游客身份使用游客数据注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号注册</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +346,738 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.滑动更换月份后，默认选中当月一号
+2.滑动更换月份为当前月，默认选中当前日期
+3.查询选中日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询选中日期的日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在客户终端上，APP处于使用状态期间，在任何界面均可由唤醒词唤醒，切换
+醒后跳转语音助手界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发布人删除日程后，删除所有参与人日程，并推送消息通知给参与人
+2.参与人删除日程后，视为退出（拒绝），同时给予发布人推送消息通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发布人删除日程为不可逆操作，删除操作给与用户两次警告，同意后执行操作
+2.参与人删除给与一次警告，同意后删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dataType </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deviceId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型-&gt;功能-&gt;标签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编辑日程提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.日程提醒时间
+2.日程的重复类型
+3.日程的附件
+4.日程标签修改
+5.日程参与人修改
+6.日程日程主题修改
+7.日程时间修改
+8.日程评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示/不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可选/不可选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    dataType：功能 + "_" + 类别 + "_" + 动作，示例：1_0_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queueName：userId + "." + deviceId;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理token和设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userName：accountMobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.参与人默认选中自己，进行输入操作时清空
+2.创建日程共有四个要素：主题，参与人，标签，时间
+3.标签决定日程重要等级，类型，重复模式，其中推送同步只同步重要等级和重复模式
+4.时间分为单次日期和多天日期，单次日期有具体的时刻，多天日期没有时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞处理逻辑版本问题考虑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讯飞语义参数识别问题及逻辑处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.添加新参与人后对新增人员推送邀请，不可删除参与人
+2.发布人可以修改全部内容。
+3.参与人只可修改类型、私密标签，上传附件，写评论回复，设置提醒时间。
+4.日程有更新状态对所有人发布消息通知
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.日程邀请接受/拒绝推送通知
+2.日程状态更新推送通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.条件查询
+2.详情查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.条件：时间区间、标签、主题
+2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短消息验证码注册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引导页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择登陆，注册，游客身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个页面的产品介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步本地日历数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建sqllite数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送后端请求验证码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>协议内容页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册并登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.验证用户密码
+2.同步服务器端数据
+3.替换本地游客uuid
+4.获取服务token
+5.上传设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转短信登陆页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码登陆（登陆后功能同登陆功能）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.滑动改变月份
+2.选择月份（不支持选择年份）
+3.返回今天
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择月的展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.日历显示按筛选的表签抽取数据并显示颜色
+2.list部分也同样筛选
+3.未读消息不变
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.当天标识
+2.选中标识
+3.当天有日程标识（1-5件少量日程标识，5件以上大量日程标识）
+4.未读消息
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.节假日，纪念日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在日历标识日期默认为全部类型日程
+2.根据选中标签，变更日期标识
+3.根据选中标签，展示对应（接受/发布）日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中日期的我参与的事件
+点击跳转详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中日期的其他人发我的事件
+点击跳转详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中日期的我发出的事件
+点击跳转详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展示选中日期接受的日程，可轮循/滑动
+2.根据选中的筛选标签，变更对应的日程展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展示选中日期发布的日程，可轮循/滑动
+2.根据选中的筛选标签，变更对应的日程展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展示当日未处理的消息
+2.在某个终端处理过消息同时更新其他终端消息状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换到语音界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧划出菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日历选择今天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1）默认当前日期
+（2）默认当前日期有少量日程
+（3）默认当前日程有大量日程
+（4）有少量日程的日期
+（5）有大量日程的日期
+（6）没有日程的日期
+（7）有未读消息的日期 
+（8）标签对应标识
+（9）以上所有状态被选中后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model形式弹出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单击日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给选中日期添加事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音/手动切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音和手动模式切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音状态下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.百度语音翻译后显示
+2.上传语音文件
+3.提示请稍等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mq返回
+1.新建事件
+2.查询（实现时讨论）
+3.系统设置
+4.添加联系人
+5.其他技能返回
+6.返回提示
+7.失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动输入下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同语音状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音助手界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回数据列表操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.跳转新建事件页面
+2.跳转详情页
+3.发布
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.web页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.选择参与人
+2.默认参与人为自己
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑昵称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除
+参与人无法发送事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.发送询问
+2.查看是否接收自己发送事件
+3.是否接收对方发送事件
+4.新邀请通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑群组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备忘录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常生活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程碑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步日历，节日导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WelcomePage.createSql()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WelcomePage.uploadLocal()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WelcomePage.syncData()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRegisterPage.getAuthCode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRegisterPage.showFile()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRegisterPage.register()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WelcomePage.login()跳转页面
+WelcomePage.register()跳转页面
+WelcomePage.visitor()跳转页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WelcomePage.slides 数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLoginPage.register()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLoginPage.login()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLoginPage.loginWithCode()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLoginPage.changeMethod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.showMethod()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.filterMethod(LabelId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.messageDetail（messageId）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.scheduleDetail(scheduleId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.scheduleDetail(scheduleId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.findSchedule(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.init()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeechPage.startXiaoJi()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeechPage.startXiaoJiText()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeechPage.modeFlag 布尔值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomePage.addSchedule(date)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安排给自己
+2.安排给他人
+3.安排的日程类型
+4.日程的开始-结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpeechPage.addSchedule()
+SpeechPage.scheduleDetail(scheduleId)
+SpeechPage.releaseSchedule()
+SpeechPage.showWeb()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.addSchedule()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.deleteSchedule(scheduleId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.editSchedule()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.findSchedule()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.setAlarmClock()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ScheduleService.pushMessage()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerService.addPlayer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerService.detelePlayer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerService.findPlayer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerService.editPlayer()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +1085,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,22 +1100,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -673,17 +1242,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -715,11 +1273,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -734,75 +1316,202 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2360,558 +3069,980 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.125" customWidth="1"/>
-    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="28.75" style="29" customWidth="1"/>
+    <col min="6" max="6" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47"/>
+      <c r="B2" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="49"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E6" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="47">
+        <v>1</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="37"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="54">
+        <v>2</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="52"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="52"/>
+    </row>
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19">
+        <v>3</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="55">
+        <v>3</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="55"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="55"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="55"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="55"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="55"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="55"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="55"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G21" s="9"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="55"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="55"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="9"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="55"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="55">
+        <v>4</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="55"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="55"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A28" s="55"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="55"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="32"/>
+    </row>
+    <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A30" s="55"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="64" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="58">
+        <v>5</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="64" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="58"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61" t="s">
+        <v>227</v>
+      </c>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="64" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" s="58"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="64" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A34" s="58"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="58"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="G35" s="63" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+    <row r="36" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="58"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="68" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+    </row>
+    <row r="37" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="58"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" s="69"/>
+    </row>
+    <row r="38" spans="1:7" s="64" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="71">
+        <v>6</v>
+      </c>
+      <c r="B38" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="69"/>
+    </row>
+    <row r="39" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="72"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="G39" s="69"/>
+    </row>
+    <row r="40" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="72"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="69"/>
+    </row>
+    <row r="41" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="72"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="G41" s="69"/>
+    </row>
+    <row r="42" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="72"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="69"/>
+    </row>
+    <row r="43" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="72"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="69"/>
+    </row>
+    <row r="44" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="58">
+        <v>7</v>
+      </c>
+      <c r="B44" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="67"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
+    </row>
+    <row r="45" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="58"/>
+      <c r="B45" s="70"/>
+      <c r="C45" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="69"/>
+    </row>
+    <row r="46" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="58">
+        <v>8</v>
+      </c>
+      <c r="B46" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="26"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="11">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="18"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="3" t="s">
+      <c r="C46" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
+      <c r="G46" s="69"/>
+    </row>
+    <row r="47" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="58"/>
+      <c r="B47" s="70"/>
+      <c r="C47" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="69"/>
+    </row>
+    <row r="48" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71">
+        <v>9</v>
+      </c>
+      <c r="B48" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="69"/>
+    </row>
+    <row r="49" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="72"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="69"/>
+    </row>
+    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="72"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="10">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="10">
-        <v>6</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
+    </row>
+    <row r="51" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="67"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11">
-        <v>7</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="10">
-        <v>8</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="10"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="10">
-        <v>9</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="11">
-        <v>10</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D52" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="7"/>
+      <c r="D53" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="10"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="7"/>
+      <c r="D54" t="s">
+        <v>197</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="10"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="7"/>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="10"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="7"/>
+      <c r="D56" t="s">
+        <v>199</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="7"/>
+      <c r="D57" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="10"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="7"/>
+      <c r="D58" t="s">
+        <v>202</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="7"/>
+      <c r="D59" t="s">
+        <v>203</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="10"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="10"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E4:E7"/>
+  <mergeCells count="29">
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2924,7 +4055,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2938,10 +4069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="A14:XFD14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2950,254 +4081,344 @@
     <col min="3" max="3" width="74.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="12">
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="18"/>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="18"/>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="48"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="48"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-      <c r="B9" s="19"/>
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="48"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="48">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="57" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="48">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="57" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+        <v>99</v>
+      </c>
+      <c r="E13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="48"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="48">
         <v>4</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="19"/>
+      <c r="B16" s="57" t="s">
+        <v>20</v>
+      </c>
       <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="48"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" t="s">
+        <v>113</v>
+      </c>
+      <c r="L17" t="s">
         <v>33</v>
       </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E25" t="s">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+      <c r="M17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M18" t="s">
         <v>42</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.15">
-      <c r="F32" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="M20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F34" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="L21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F35" t="s">
+      <c r="M21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M22" t="s">
         <v>48</v>
       </c>
-      <c r="F36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E37" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="F38" t="s">
-        <v>52</v>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I33" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I34" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="212">
   <si>
     <t>目标</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,110 +107,6 @@
   </si>
   <si>
     <t xml:space="preserve">    功能：1.讯飞应答语义 2.新消息 3.数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>私密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生活</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纪念日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家庭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朋友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐藏标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人/群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -371,10 +267,6 @@
   <si>
     <t>1.发布人删除日程为不可逆操作，删除操作给与用户两次警告，同意后执行操作
 2.参与人删除给与一次警告，同意后删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -532,10 +424,6 @@
   </si>
   <si>
     <t>3个页面的产品介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步本地日历数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1078,6 +966,10 @@
   </si>
   <si>
     <t>PlayerService.editPlayer()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步本地日历数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1407,111 +1299,111 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3072,8 +2964,8 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3089,820 +2981,820 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47"/>
-      <c r="B2" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>120</v>
+      <c r="A2" s="55"/>
+      <c r="B2" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="25" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="39"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="25" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="39"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="12" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="25" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="49"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="12" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="47">
+      <c r="A7" s="55">
         <v>1</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="66">
+        <v>2</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" s="50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="54">
-        <v>2</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="39"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="7" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="52"/>
+        <v>184</v>
+      </c>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="39"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="7" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>215</v>
-      </c>
-      <c r="G12" s="52"/>
+        <v>187</v>
+      </c>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>3</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="55">
+      <c r="A14" s="52">
         <v>3</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>141</v>
+      <c r="B14" s="53" t="s">
+        <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="9" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
-      <c r="B15" s="43"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="7" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="38" t="s">
-        <v>150</v>
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="67" t="s">
+        <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="55"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="7" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="55"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="40"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="28" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="55"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="7" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="55"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="7" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="55"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="7" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="3" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="55"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="7" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="55"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="7" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="3"/>
       <c r="G24" s="9" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="55">
+      <c r="A25" s="52">
         <v>4</v>
       </c>
-      <c r="B25" s="53" t="s">
-        <v>182</v>
+      <c r="B25" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="55"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41" t="s">
-        <v>174</v>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="69" t="s">
+        <v>146</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="37" t="s">
-        <v>223</v>
+      <c r="F26" s="62" t="s">
+        <v>195</v>
       </c>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="55"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="26" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A28" s="55"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="41"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="26" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F28" s="37"/>
+        <v>151</v>
+      </c>
+      <c r="F28" s="62"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="55"/>
-      <c r="B29" s="43"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="21" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="55"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="7" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" s="64" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="58">
+    <row r="31" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="50">
         <v>5</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="62" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="64" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="F32" s="62"/>
-      <c r="G32" s="63" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="64" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="67" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62" t="s">
-        <v>230</v>
-      </c>
-      <c r="G33" s="63" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="64" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A34" s="58"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="G34" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="58"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62" t="s">
-        <v>232</v>
-      </c>
-      <c r="G35" s="63" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="67"/>
-      <c r="F36" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" s="69">
+      <c r="B31" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="50"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="40" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="A33" s="50"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="40" customFormat="1" ht="108" x14ac:dyDescent="0.15">
+      <c r="A34" s="50"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G34" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A35" s="50"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38" t="s">
+        <v>204</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="50"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="58"/>
-      <c r="B37" s="70"/>
-      <c r="C37" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" s="69"/>
-    </row>
-    <row r="38" spans="1:7" s="64" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="71">
+    <row r="37" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="1:7" s="40" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A38" s="46">
         <v>6</v>
       </c>
-      <c r="B38" s="59" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G38" s="69"/>
-    </row>
-    <row r="39" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="72"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="G39" s="69"/>
-    </row>
-    <row r="40" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="72"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62" t="s">
-        <v>238</v>
-      </c>
-      <c r="G40" s="69"/>
-    </row>
-    <row r="41" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="67" t="s">
-        <v>190</v>
-      </c>
-      <c r="D41" s="61" t="s">
-        <v>191</v>
-      </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62" t="s">
-        <v>237</v>
-      </c>
-      <c r="G41" s="69"/>
-    </row>
-    <row r="42" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="72"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="69"/>
-    </row>
-    <row r="43" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="72"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="67" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="69"/>
-    </row>
-    <row r="44" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58">
+      <c r="B38" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="47"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="47"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="43"/>
+    </row>
+    <row r="42" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="47"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="43"/>
+    </row>
+    <row r="43" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="43"/>
+    </row>
+    <row r="44" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="50">
         <v>7</v>
       </c>
-      <c r="B44" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
-    </row>
-    <row r="45" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="58"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
-      <c r="G45" s="69"/>
-    </row>
-    <row r="46" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="58">
+      <c r="B44" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
+    </row>
+    <row r="45" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="43"/>
+    </row>
+    <row r="46" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="50">
         <v>8</v>
       </c>
-      <c r="B46" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="69"/>
-    </row>
-    <row r="47" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="58"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="67" t="s">
+      <c r="B46" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="43"/>
+    </row>
+    <row r="47" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="43"/>
+    </row>
+    <row r="48" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="46">
+        <v>9</v>
+      </c>
+      <c r="B48" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="43"/>
+    </row>
+    <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="47"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="43"/>
+    </row>
+    <row r="50" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="43"/>
+    </row>
+    <row r="51" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="39" t="s">
         <v>58</v>
-      </c>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="69"/>
-    </row>
-    <row r="48" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="71">
-        <v>9</v>
-      </c>
-      <c r="B48" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="67"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="69"/>
-    </row>
-    <row r="49" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="72"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="69"/>
-    </row>
-    <row r="50" spans="1:7" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="72"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="69"/>
-    </row>
-    <row r="51" spans="1:7" s="64" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A51" s="68"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" s="67"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="D52" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="3"/>
@@ -3913,7 +3805,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="3"/>
@@ -3924,7 +3816,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
       <c r="D54" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="3"/>
@@ -3935,7 +3827,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
       <c r="D55" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="3"/>
@@ -3946,7 +3838,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="7"/>
       <c r="D56" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="3"/>
@@ -3957,7 +3849,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="3"/>
@@ -3968,7 +3860,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
       <c r="D58" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="3"/>
@@ -3979,7 +3871,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="7"/>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="3"/>
@@ -4014,6 +3906,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
@@ -4023,26 +3935,6 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4069,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="J1:M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4081,328 +3973,234 @@
     <col min="3" max="3" width="74.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="52"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="56"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="G3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="48"/>
-      <c r="B4" s="52"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="56"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>92</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A5" s="48"/>
-      <c r="B5" s="52"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="56"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="52"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="56"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="48"/>
-      <c r="B7" s="52"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="56"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="48"/>
-      <c r="B8" s="52"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="56"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="56"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="56"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="48">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="72" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="56"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="56"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="48">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="56">
         <v>3</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="56"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="56"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="56"/>
+      <c r="B15" s="71"/>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
-      </c>
-      <c r="L15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="48">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="56">
         <v>4</v>
       </c>
-      <c r="B16" s="57" t="s">
+      <c r="B16" s="72" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="48"/>
-      <c r="B17" s="56"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="56"/>
+      <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L21" t="s">
-        <v>46</v>
-      </c>
-      <c r="M21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I29" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I31" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I32" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="4590" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="4590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -1318,6 +1318,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1328,75 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2963,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3003,11 +3003,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="52" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -3022,9 +3022,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="12" t="s">
         <v>95</v>
       </c>
@@ -3035,9 +3035,9 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="12" t="s">
         <v>211</v>
       </c>
@@ -3048,9 +3048,9 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="12" t="s">
         <v>96</v>
       </c>
@@ -3061,9 +3061,9 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="12" t="s">
         <v>94</v>
       </c>
@@ -3076,13 +3076,13 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="55">
+      <c r="A7" s="54">
         <v>1</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3094,14 +3094,14 @@
       <c r="F7" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="61" t="s">
+      <c r="G7" s="57" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="59"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="23" t="s">
         <v>99</v>
       </c>
@@ -3111,12 +3111,12 @@
       <c r="F8" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="44"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="60"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="23" t="s">
         <v>23</v>
       </c>
@@ -3126,16 +3126,16 @@
       <c r="F9" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="44"/>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="66">
+      <c r="A10" s="61">
         <v>2</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="52" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3147,14 +3147,14 @@
       <c r="F10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
@@ -3164,12 +3164,12 @@
       <c r="F11" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="7" t="s">
         <v>108</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="F12" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
@@ -3201,10 +3201,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
+      <c r="A14" s="62">
         <v>3</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="50" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3222,8 +3222,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="50"/>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
@@ -3241,8 +3241,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="7" t="s">
         <v>121</v>
       </c>
@@ -3260,9 +3260,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="67" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="45" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3279,9 +3279,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="59"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7" t="s">
         <v>126</v>
       </c>
@@ -3296,9 +3296,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="68"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="28" t="s">
         <v>123</v>
       </c>
@@ -3313,8 +3313,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="7" t="s">
         <v>142</v>
       </c>
@@ -3330,8 +3330,8 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
@@ -3347,8 +3347,8 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="7" t="s">
         <v>138</v>
       </c>
@@ -3362,8 +3362,8 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="7" t="s">
         <v>136</v>
       </c>
@@ -3375,8 +3375,8 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
@@ -3390,10 +3390,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="62">
         <v>4</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="60" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -3408,49 +3408,49 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="48" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="44" t="s">
         <v>195</v>
       </c>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="69"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="26" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="62"/>
+      <c r="F27" s="44"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="26" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="21" t="s">
         <v>152</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="7" t="s">
         <v>155</v>
       </c>
@@ -3479,13 +3479,13 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="50">
+      <c r="A31" s="63">
         <v>5</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="67" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="37" t="s">
@@ -3502,9 +3502,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37" t="s">
         <v>199</v>
@@ -3515,8 +3515,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="40" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="41" t="s">
         <v>25</v>
       </c>
@@ -3532,8 +3532,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="41" t="s">
         <v>43</v>
       </c>
@@ -3549,8 +3549,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="41" t="s">
         <v>42</v>
       </c>
@@ -3566,8 +3566,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="41" t="s">
         <v>26</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="41" t="s">
         <v>41</v>
       </c>
@@ -3598,10 +3598,10 @@
       <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" s="40" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="46">
+      <c r="A38" s="69">
         <v>6</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -3617,8 +3617,8 @@
       <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="41" t="s">
         <v>38</v>
       </c>
@@ -3632,8 +3632,8 @@
       <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="41" t="s">
         <v>37</v>
       </c>
@@ -3647,8 +3647,8 @@
       <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="41" t="s">
         <v>162</v>
       </c>
@@ -3662,8 +3662,8 @@
       <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="41" t="s">
         <v>164</v>
       </c>
@@ -3673,8 +3673,8 @@
       <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="41" t="s">
         <v>165</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50">
+      <c r="A44" s="63">
         <v>7</v>
       </c>
-      <c r="B44" s="48" t="s">
+      <c r="B44" s="64" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="41" t="s">
@@ -3699,8 +3699,8 @@
       <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="41" t="s">
         <v>34</v>
       </c>
@@ -3710,10 +3710,10 @@
       <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50">
+      <c r="A46" s="63">
         <v>8</v>
       </c>
-      <c r="B46" s="48" t="s">
+      <c r="B46" s="64" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="41" t="s">
@@ -3725,8 +3725,8 @@
       <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="41" t="s">
         <v>32</v>
       </c>
@@ -3736,10 +3736,10 @@
       <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46">
+      <c r="A48" s="69">
         <v>9</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="64" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="41" t="s">
@@ -3751,8 +3751,8 @@
       <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="41" t="s">
         <v>29</v>
       </c>
@@ -3762,8 +3762,8 @@
       <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="41" t="s">
         <v>28</v>
       </c>
@@ -3906,11 +3906,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C7:C9"/>
@@ -3920,21 +3930,11 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3963,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="J1:M22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="56">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
@@ -4001,8 +4001,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4014,8 +4014,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="65"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -4027,8 +4027,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="65"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
@@ -4040,8 +4040,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4053,15 +4053,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="71"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -4100,19 +4100,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="65"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>3</v>
       </c>
       <c r="B13" s="72" t="s">
@@ -4126,14 +4126,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="71"/>
       <c r="C15" s="5" t="s">
         <v>75</v>
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <v>4</v>
       </c>
       <c r="B16" s="72" t="s">
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
         <v>83</v>

--- a/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
@@ -1318,85 +1318,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3003,11 +3003,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54"/>
-      <c r="B2" s="49" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="63" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="58" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -3022,9 +3022,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="12" t="s">
         <v>95</v>
       </c>
@@ -3035,9 +3035,9 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="55"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="12" t="s">
         <v>211</v>
       </c>
@@ -3048,9 +3048,9 @@
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="55"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="12" t="s">
         <v>96</v>
       </c>
@@ -3061,9 +3061,9 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="12" t="s">
         <v>94</v>
       </c>
@@ -3076,13 +3076,13 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="54">
+      <c r="A7" s="55">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3094,14 +3094,14 @@
       <c r="F7" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="61" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="23" t="s">
         <v>99</v>
       </c>
@@ -3111,12 +3111,12 @@
       <c r="F8" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="53"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="23" t="s">
         <v>23</v>
       </c>
@@ -3126,16 +3126,16 @@
       <c r="F9" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="62"/>
     </row>
     <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="61">
+      <c r="A10" s="66">
         <v>2</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="58" t="s">
         <v>103</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -3147,14 +3147,14 @@
       <c r="F10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="64" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="7" t="s">
         <v>23</v>
       </c>
@@ -3164,12 +3164,12 @@
       <c r="F11" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="59"/>
+      <c r="G11" s="65"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="7" t="s">
         <v>108</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="F12" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="G12" s="59"/>
+      <c r="G12" s="65"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
@@ -3201,10 +3201,10 @@
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="62">
+      <c r="A14" s="52">
         <v>3</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="53" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -3222,8 +3222,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
-      <c r="B15" s="50"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
         <v>119</v>
       </c>
@@ -3241,8 +3241,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="62"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="7" t="s">
         <v>121</v>
       </c>
@@ -3260,9 +3260,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="62"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="45" t="s">
+      <c r="A17" s="52"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="67" t="s">
         <v>122</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -3279,9 +3279,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="62"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="7" t="s">
         <v>126</v>
       </c>
@@ -3296,9 +3296,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="62"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="47"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="28" t="s">
         <v>123</v>
       </c>
@@ -3313,8 +3313,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="62"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="7" t="s">
         <v>142</v>
       </c>
@@ -3330,8 +3330,8 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="62"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="7" t="s">
         <v>47</v>
       </c>
@@ -3347,8 +3347,8 @@
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="62"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="7" t="s">
         <v>138</v>
       </c>
@@ -3362,8 +3362,8 @@
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="62"/>
-      <c r="B23" s="50"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="7" t="s">
         <v>136</v>
       </c>
@@ -3375,8 +3375,8 @@
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="62"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
@@ -3390,10 +3390,10 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="62">
+      <c r="A25" s="52">
         <v>4</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="54" t="s">
         <v>154</v>
       </c>
       <c r="C25" s="20" t="s">
@@ -3408,49 +3408,49 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="62"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="48" t="s">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="69" t="s">
         <v>146</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>147</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="44" t="s">
+      <c r="F26" s="62" t="s">
         <v>195</v>
       </c>
       <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="62"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="69"/>
       <c r="D27" s="26" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A28" s="62"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="26" t="s">
         <v>149</v>
       </c>
       <c r="E28" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="33"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="62"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="21" t="s">
         <v>152</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="62"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="7" t="s">
         <v>155</v>
       </c>
@@ -3479,13 +3479,13 @@
       <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="63">
+      <c r="A31" s="50">
         <v>5</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="37" t="s">
@@ -3502,9 +3502,9 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="63"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37" t="s">
         <v>199</v>
@@ -3515,8 +3515,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="40" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="63"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="41" t="s">
         <v>25</v>
       </c>
@@ -3532,8 +3532,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A34" s="63"/>
-      <c r="B34" s="65"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="41" t="s">
         <v>43</v>
       </c>
@@ -3549,8 +3549,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="63"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="50"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="41" t="s">
         <v>42</v>
       </c>
@@ -3566,8 +3566,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="63"/>
-      <c r="B36" s="65"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="41" t="s">
         <v>26</v>
       </c>
@@ -3583,8 +3583,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="41" t="s">
         <v>41</v>
       </c>
@@ -3598,10 +3598,10 @@
       <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" s="40" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="69">
+      <c r="A38" s="46">
         <v>6</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="48" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="41" t="s">
@@ -3617,8 +3617,8 @@
       <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="70"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="41" t="s">
         <v>38</v>
       </c>
@@ -3632,8 +3632,8 @@
       <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="70"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="47"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="41" t="s">
         <v>37</v>
       </c>
@@ -3647,8 +3647,8 @@
       <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="70"/>
-      <c r="B41" s="65"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="41" t="s">
         <v>162</v>
       </c>
@@ -3662,8 +3662,8 @@
       <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="70"/>
-      <c r="B42" s="65"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="41" t="s">
         <v>164</v>
       </c>
@@ -3673,8 +3673,8 @@
       <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="70"/>
-      <c r="B43" s="65"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="41" t="s">
         <v>165</v>
       </c>
@@ -3684,10 +3684,10 @@
       <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="63">
+      <c r="A44" s="50">
         <v>7</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="48" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="41" t="s">
@@ -3699,8 +3699,8 @@
       <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="41" t="s">
         <v>34</v>
       </c>
@@ -3710,10 +3710,10 @@
       <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="63">
+      <c r="A46" s="50">
         <v>8</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C46" s="41" t="s">
@@ -3725,8 +3725,8 @@
       <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="63"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="41" t="s">
         <v>32</v>
       </c>
@@ -3736,10 +3736,10 @@
       <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="69">
+      <c r="A48" s="46">
         <v>9</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="48" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="41" t="s">
@@ -3751,8 +3751,8 @@
       <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="65"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="41" t="s">
         <v>29</v>
       </c>
@@ -3762,8 +3762,8 @@
       <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="70"/>
-      <c r="B50" s="65"/>
+      <c r="A50" s="47"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="41" t="s">
         <v>28</v>
       </c>
@@ -3906,6 +3906,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
@@ -3915,26 +3935,6 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3964,7 +3964,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3986,10 +3986,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="55">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="65" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
@@ -4001,8 +4001,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="65"/>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
@@ -4014,8 +4014,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="65"/>
       <c r="C4" s="5" t="s">
         <v>78</v>
       </c>
@@ -4027,8 +4027,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="55"/>
-      <c r="B5" s="59"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
@@ -4040,8 +4040,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="55"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
@@ -4053,15 +4053,15 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="55"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="55"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
@@ -4070,7 +4070,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="71"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="55">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -4100,19 +4100,19 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="55"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="55"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="55">
+      <c r="A13" s="56">
         <v>3</v>
       </c>
       <c r="B13" s="72" t="s">
@@ -4126,14 +4126,14 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="55"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="55"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="71"/>
       <c r="C15" s="5" t="s">
         <v>75</v>
@@ -4143,7 +4143,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="55">
+      <c r="A16" s="56">
         <v>4</v>
       </c>
       <c r="B16" s="72" t="s">
@@ -4154,7 +4154,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
         <v>83</v>

--- a/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
+++ b/A-开发相关文档素材/5.其他文档/项目发展方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11760" windowHeight="4590" activeTab="3"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="11760" windowHeight="4590" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
   </si>
   <si>
     <t>accountName： "gtd" + accountMobile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    功能：1.讯飞应答语义 2.新消息 3.数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -970,6 +966,10 @@
   </si>
   <si>
     <t>同步本地日历数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    功能：1.讯飞应答语义 2.新消息 3.数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,6 +1318,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1328,75 +1397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2981,691 +2981,691 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55"/>
-      <c r="B2" s="63" t="s">
+      <c r="A2" s="54"/>
+      <c r="B2" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>93</v>
-      </c>
       <c r="D2" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="25" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="59"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="59"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="59"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="41.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="54">
+        <v>1</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="55"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="55"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="61">
+        <v>2</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="55">
-        <v>1</v>
-      </c>
-      <c r="B7" s="63" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G8" s="62"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="66">
-        <v>2</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="55"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="59"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="55"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="G11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>109</v>
-      </c>
       <c r="F12" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="65"/>
+        <v>186</v>
+      </c>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19">
         <v>3</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="F13" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A14" s="62">
+        <v>3</v>
+      </c>
+      <c r="B14" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A14" s="52">
-        <v>3</v>
-      </c>
-      <c r="B14" s="53" t="s">
+      <c r="C14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="28" t="s">
         <v>114</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>115</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="62"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="62"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="62"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="62"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="62"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="62"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="52"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="28" t="s">
+      <c r="E20" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="52"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="7" t="s">
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="62"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="G20" s="9"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>143</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G21" s="9"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="3"/>
       <c r="G23" s="9"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="3"/>
       <c r="G24" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52">
+      <c r="A25" s="62">
         <v>4</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>154</v>
+      <c r="B25" s="60" t="s">
+        <v>153</v>
       </c>
       <c r="C25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="69" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="62"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="62" t="s">
-        <v>195</v>
-      </c>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="26" t="s">
+      <c r="E27" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="44"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+      <c r="A28" s="62"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E28" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="F27" s="62"/>
-      <c r="G27" s="33"/>
-    </row>
-    <row r="28" spans="1:7" ht="108" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="E28" s="26" t="s">
+      <c r="F28" s="44"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="62"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="F28" s="62"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="21" t="s">
+      <c r="D29" s="35" t="s">
         <v>152</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>153</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="63">
+        <v>5</v>
+      </c>
+      <c r="B31" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="50">
-        <v>5</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>201</v>
-      </c>
       <c r="G31" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="40" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="50"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="45"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="38"/>
       <c r="G32" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="40" customFormat="1" ht="81" x14ac:dyDescent="0.15">
-      <c r="A33" s="50"/>
-      <c r="B33" s="49"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E33" s="37"/>
       <c r="F33" s="38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="40" customFormat="1" ht="108" x14ac:dyDescent="0.15">
-      <c r="A34" s="50"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="37"/>
       <c r="F34" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G34" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A35" s="50"/>
-      <c r="B35" s="49"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E35" s="37"/>
       <c r="F35" s="38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G35" s="39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="50"/>
-      <c r="B36" s="49"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="41"/>
       <c r="F36" s="42" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G36" s="43">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E37" s="37"/>
       <c r="F37" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G37" s="43"/>
     </row>
     <row r="38" spans="1:7" s="40" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A38" s="46">
+      <c r="A38" s="69">
         <v>6</v>
       </c>
-      <c r="B38" s="48" t="s">
-        <v>40</v>
+      <c r="B38" s="64" t="s">
+        <v>39</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D38" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E38" s="37"/>
       <c r="F38" s="38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G38" s="43"/>
     </row>
     <row r="39" spans="1:7" s="40" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A39" s="47"/>
-      <c r="B39" s="49"/>
+      <c r="A39" s="70"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E39" s="37"/>
       <c r="F39" s="38" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G39" s="43"/>
     </row>
     <row r="40" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="47"/>
-      <c r="B40" s="49"/>
+      <c r="A40" s="70"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="38" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G40" s="43"/>
     </row>
     <row r="41" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="47"/>
-      <c r="B41" s="49"/>
+      <c r="A41" s="70"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="37" t="s">
         <v>162</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>163</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G41" s="43"/>
     </row>
     <row r="42" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47"/>
-      <c r="B42" s="49"/>
+      <c r="A42" s="70"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="41" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -3673,10 +3673,10 @@
       <c r="G42" s="43"/>
     </row>
     <row r="43" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
+      <c r="A43" s="70"/>
+      <c r="B43" s="65"/>
       <c r="C43" s="41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -3684,14 +3684,14 @@
       <c r="G43" s="43"/>
     </row>
     <row r="44" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="50">
+      <c r="A44" s="63">
         <v>7</v>
       </c>
-      <c r="B44" s="48" t="s">
-        <v>36</v>
+      <c r="B44" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
@@ -3699,10 +3699,10 @@
       <c r="G44" s="43"/>
     </row>
     <row r="45" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="50"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
@@ -3710,14 +3710,14 @@
       <c r="G45" s="43"/>
     </row>
     <row r="46" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="50">
+      <c r="A46" s="63">
         <v>8</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>27</v>
+      <c r="B46" s="64" t="s">
+        <v>26</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
@@ -3725,10 +3725,10 @@
       <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="50"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
@@ -3736,14 +3736,14 @@
       <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="46">
+      <c r="A48" s="69">
         <v>9</v>
       </c>
-      <c r="B48" s="48" t="s">
-        <v>31</v>
+      <c r="B48" s="64" t="s">
+        <v>30</v>
       </c>
       <c r="C48" s="41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
@@ -3751,10 +3751,10 @@
       <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="47"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
@@ -3762,10 +3762,10 @@
       <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47"/>
-      <c r="B50" s="49"/>
+      <c r="A50" s="70"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
@@ -3776,25 +3776,25 @@
       <c r="A51" s="42"/>
       <c r="B51" s="42"/>
       <c r="C51" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D51" s="41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E51" s="41"/>
       <c r="F51" s="42"/>
       <c r="G51" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
         <v>166</v>
-      </c>
-      <c r="D52" t="s">
-        <v>167</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="3"/>
@@ -3805,7 +3805,7 @@
       <c r="B53" s="3"/>
       <c r="C53" s="7"/>
       <c r="D53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="3"/>
@@ -3816,7 +3816,7 @@
       <c r="B54" s="3"/>
       <c r="C54" s="7"/>
       <c r="D54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="3"/>
@@ -3827,7 +3827,7 @@
       <c r="B55" s="3"/>
       <c r="C55" s="7"/>
       <c r="D55" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="3"/>
@@ -3838,7 +3838,7 @@
       <c r="B56" s="3"/>
       <c r="C56" s="7"/>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="3"/>
@@ -3849,7 +3849,7 @@
       <c r="B57" s="3"/>
       <c r="C57" s="7"/>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="3"/>
@@ -3860,7 +3860,7 @@
       <c r="B58" s="3"/>
       <c r="C58" s="7"/>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="3"/>
@@ -3871,7 +3871,7 @@
       <c r="B59" s="3"/>
       <c r="C59" s="7"/>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="3"/>
@@ -3906,11 +3906,21 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="A14:A24"/>
+    <mergeCell ref="B14:B24"/>
+    <mergeCell ref="A25:A30"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="B31:B37"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C7:C9"/>
@@ -3920,21 +3930,11 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A24"/>
-    <mergeCell ref="B14:B24"/>
-    <mergeCell ref="A25:A30"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3964,7 +3964,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3976,114 +3976,114 @@
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B1" s="6"/>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
         <v>63</v>
       </c>
-      <c r="G1" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="56">
+      <c r="A2" s="55">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="5"/>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="65"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="G3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="55"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
-      </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="56"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="56"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="56"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="56"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="71"/>
       <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -4093,57 +4093,57 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="55"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="5" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="65"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="56">
+      <c r="A13" s="55">
         <v>3</v>
       </c>
       <c r="B13" s="72" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="56"/>
-      <c r="B14" s="65"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="71"/>
       <c r="C15" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="56">
+      <c r="A16" s="55">
         <v>4</v>
       </c>
       <c r="B16" s="72" t="s">
@@ -4154,53 +4154,53 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="71"/>
       <c r="C17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I29" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I32" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
